--- a/SAM 1.3/arquivo_cliente/arquivo_linkado_todos.xlsx
+++ b/SAM 1.3/arquivo_cliente/arquivo_linkado_todos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.2 (Padronizado)\arquivo_cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.3\arquivo_cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10097DAD-B53B-4E29-B4C4-9BA54DC32ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197B034-951A-41EB-B536-7BC6C42A7D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{325A5941-1743-4CC9-A28F-A22700241935}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{325A5941-1743-4CC9-A28F-A22700241935}"/>
   </bookViews>
   <sheets>
     <sheet name="localiza" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="fleury" sheetId="7" r:id="rId5"/>
     <sheet name="daki" sheetId="8" r:id="rId6"/>
     <sheet name="dpsp" sheetId="9" r:id="rId7"/>
+    <sheet name="grpcom" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="145">
   <si>
     <t>Coluna extraída</t>
   </si>
@@ -465,6 +466,15 @@
   </si>
   <si>
     <t>Data de emissão</t>
+  </si>
+  <si>
+    <t>Concessionária  (TWM)</t>
+  </si>
+  <si>
+    <t>Empresa  (TWM)</t>
+  </si>
+  <si>
+    <t>Data de emissão (TWM)</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B33BC5-8672-4F49-AD04-DEC2638EDF95}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A405A2AE-D1B6-410A-B8C4-10B887584D81}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3415,4 +3425,423 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF22867-366C-4E7C-ADD1-BEEF2D7FEB71}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>